--- a/test_masterList1.xlsx
+++ b/test_masterList1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10060" windowWidth="21060" xWindow="3840" yWindow="3740"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10060" windowWidth="19200" xWindow="18680" yWindow="-16720"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" state="visible" r:id="rId1"/>
@@ -45,8 +45,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normaali" xfId="0"/>
@@ -424,113 +425,162 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="10.7265625"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="15.90625"/>
     <col bestFit="1" customWidth="1" max="3" min="2" width="12.453125"/>
     <col bestFit="1" customWidth="1" max="5" min="5" width="16.08984375"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" width="10.7265625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="13.81640625"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>barcode</t>
+          <t>Supercell</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>ip</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>mask</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>gw</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>mac</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>DanteName</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4430AM173</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>10.10.0.21</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>255.255.255.0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.10.0.1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>AC:47:23:20:01:2B</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Genelec-81f028</t>
+          <t>Floor nr.8</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>barcode</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ip</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>mask</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>gw</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MAC</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Dante</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Configured</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4430AM175</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>10.10.0.32</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>10.10.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>4430AM174</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>10.10.0.22</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10.10.0.41</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>255.255.255.0</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>10.10.0.1</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>AC:47:23:20:01:2A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Genelec-81efe3</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4430AM173</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>10.10.0.40</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.10.0.1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>AC:47:23:20:01:2B</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Genelec-81f028</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
     </row>
